--- a/Training Postings.xlsx
+++ b/Training Postings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCM\Google Drive\2020-Move\Projects\Job Search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCM\Google Drive\2020-Move\Projects\job-search-data-science\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Postings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="1604">
   <si>
     <t>Title</t>
   </si>
@@ -4680,9 +4680,6 @@
     <t>candidates must be US persons, which include U.S. Citizenship or Permanent Residency.</t>
   </si>
   <si>
-    <t xml:space="preserve">Common phrases </t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -4692,9 +4689,6 @@
     <t>W2 only</t>
   </si>
   <si>
-    <t>MAYNE</t>
-  </si>
-  <si>
     <t>US Citizen with a TS/SCI clearance preferable; willingness and ability to obtain clearance required</t>
   </si>
   <si>
@@ -4834,6 +4828,15 @@
   </si>
   <si>
     <t>'visas',</t>
+  </si>
+  <si>
+    <t>phrases</t>
+  </si>
+  <si>
+    <t>not authorized to work in the US without sponsorship</t>
+  </si>
+  <si>
+    <t>not authorized to work in the United States without sponsorship</t>
   </si>
 </sst>
 </file>
@@ -5317,7 +5320,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5326,6 +5329,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5690,8 +5694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="98.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14494,8 +14498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14506,22 +14510,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1552</v>
-      </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1519</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14542,7 +14543,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1522</v>
+        <v>1603</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -14550,7 +14551,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1523</v>
+        <v>1602</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -14758,7 +14759,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -14766,15 +14767,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1555</v>
+        <v>1553</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -14951,10 +14952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14962,273 +14963,276 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("'",TRIM(A2),"',")</f>
         <v>'security clearance',</v>
       </c>
       <c r="C2" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1579</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:C23" si="0">CONCATENATE("'",TRIM(A3),"',")</f>
+        <f t="shared" ref="B3:B23" si="0">CONCATENATE("'",TRIM(A3),"',")</f>
         <v>'citizens',</v>
       </c>
       <c r="C3" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>'citizen',</v>
       </c>
       <c r="C4" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>'green card',</v>
       </c>
       <c r="C5" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>'authorized',</v>
       </c>
       <c r="C6" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>'authorization',</v>
       </c>
       <c r="C7" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>'sponsorship',</v>
       </c>
       <c r="C8" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>'visa',</v>
       </c>
       <c r="C9" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>'US citizen',</v>
       </c>
       <c r="C10" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>'eligible',</v>
       </c>
       <c r="C11" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>'TS/SCI',</v>
       </c>
       <c r="C12" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>'DoD',</v>
       </c>
       <c r="C13" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>'secret clearance',</v>
       </c>
       <c r="C14" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>'resident',</v>
       </c>
       <c r="C15" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>'US persons',</v>
       </c>
       <c r="C16" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>'equal employment',</v>
       </c>
       <c r="C17" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>'EEO',</v>
       </c>
       <c r="C18" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>'citizenship',</v>
       </c>
       <c r="C19" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>'citizenship status',</v>
       </c>
       <c r="C20" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>'No C2C',</v>
       </c>
       <c r="C21" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>'W2 only',</v>
       </c>
       <c r="C22" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>'visas',</v>
       </c>
       <c r="C23" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
